--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2003.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2003.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.008*"foreign" + 0.008*"exchange" + 0.007*"currency" + 0.007*"yes" + 0.006*"payment" + 0.006*"control" + 0.006*"export" + 0.006*"resident" + 0.006*"bank" + 0.006*"account"</t>
-  </si>
-  <si>
-    <t>0.007*"exchange" + 0.006*"currency" + 0.006*"foreign" + 0.005*"yes" + 0.005*"resident" + 0.004*"account" + 0.004*"control" + 0.003*"abroad" + 0.003*"may" + 0.003*"import"</t>
-  </si>
-  <si>
-    <t>0.001*"foreign" + 0.001*"exchange" + 0.001*"yes" + 0.001*"bank" + 0.001*"account" + 0.001*"may" + 0.001*"control" + 0.001*"import" + 0.001*"nonresident" + 0.001*"ion"</t>
-  </si>
-  <si>
-    <t>0.020*"foreign" + 0.019*"exchange" + 0.013*"account" + 0.013*"currency" + 0.013*"import" + 0.013*"yes" + 0.012*"control" + 0.011*"resident" + 0.011*"may" + 0.011*"bank"</t>
-  </si>
-  <si>
-    <t>0.001*"exchange" + 0.001*"foreign" + 0.001*"import" + 0.001*"account" + 0.001*"currency" + 0.001*"export" + 0.001*"control" + 0.001*"bank" + 0.001*"nonresident" + 0.001*"may"</t>
+    <t>0.058*"exchange" + 0.033*"rate" + 0.030*"bank" + 0.018*"limit" + 0.016*"foreign" + 0.013*"market" + 0.013*"commercial" + 0.011*"specific" + 0.011*"approval" + 0.009*"ing"</t>
+  </si>
+  <si>
+    <t>0.057*"control" + 0.039*"transaction" + 0.036*"resident" + 0.031*"nonresident" + 0.030*"security" + 0.030*"investment" + 0.030*"capital" + 0.026*"abroad" + 0.025*"transfer" + 0.025*"payment"</t>
+  </si>
+  <si>
+    <t>0.037*"may" + 0.027*"foreign" + 0.015*"currency" + 0.014*"trade" + 0.013*"gold" + 0.013*"export" + 0.013*"bank" + 0.011*"company" + 0.011*"amount" + 0.010*"import"</t>
+  </si>
+  <si>
+    <t>0.043*"account" + 0.040*"yes" + 0.039*"currency" + 0.037*"foreign" + 0.025*"ion" + 0.023*"exchange" + 0.022*"fund" + 0.018*"international" + 0.017*"t" + 0.016*"monetary"</t>
+  </si>
+  <si>
+    <t>0.062*"import" + 0.039*"export" + 0.029*"requirement" + 0.020*"license" + 0.014*"tax" + 0.014*"proceeds" + 0.014*"good" + 0.012*"payment" + 0.012*"ing" + 0.011*"product"</t>
   </si>
 </sst>
 </file>
